--- a/LE TABLEUR A SA MERE.xlsx
+++ b/LE TABLEUR A SA MERE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Fond-de-Placard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Ingrédients</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>nbr_perso</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>nom</t>
   </si>
 </sst>
 </file>
@@ -154,12 +160,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -296,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -304,15 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -330,15 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,6 +376,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,6 +744,56 @@
         <a:xfrm>
           <a:off x="5810250" y="1266825"/>
           <a:ext cx="819150" cy="2895600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit avec flèche 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5724525" y="1276350"/>
+          <a:ext cx="57150" cy="6210300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -882,63 +1088,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:Q32"/>
+  <dimension ref="C3:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:K21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="O4" s="7" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
+      <c r="O4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
@@ -954,11 +1160,11 @@
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -978,11 +1184,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2" t="s">
         <v>13</v>
@@ -1002,11 +1208,11 @@
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2" t="s">
         <v>14</v>
@@ -1026,11 +1232,11 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -1046,13 +1252,13 @@
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
@@ -1068,11 +1274,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
@@ -1085,12 +1291,12 @@
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
@@ -1104,9 +1310,9 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
@@ -1121,8 +1327,8 @@
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
@@ -1136,8 +1342,8 @@
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="10"/>
-      <c r="J16" s="22"/>
+      <c r="G16" s="7"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
@@ -1150,9 +1356,9 @@
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="1"/>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
@@ -1178,25 +1384,25 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="I20" s="7" t="s">
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="I20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1220,7 +1426,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1235,19 +1441,19 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q24" s="19" t="s">
+      <c r="Q24" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1364,8 +1570,88 @@
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
     </row>
+    <row r="33" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+    </row>
+    <row r="35" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="57"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
+    </row>
+    <row r="36" spans="7:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="17"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G34:I35"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="O4:Q5"/>
     <mergeCell ref="I20:K21"/>
